--- a/tests/data_up_to_S2022T04/raw_ranking_S2022T01.xlsx
+++ b/tests/data_up_to_S2022T04/raw_ranking_S2022T01.xlsx
@@ -53,7 +53,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -2244,7 +2243,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G22" t="n">
         <v>1488</v>
@@ -2255,7 +2254,7 @@
         </is>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,7 +2298,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>Nowotny, Martin</t>
+          <t>Dupertuis, Gaston</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2325,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G23" t="n">
         <v>1488</v>
@@ -2337,7 +2336,7 @@
         </is>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2381,7 +2380,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>Dupertuis, Gaston</t>
+          <t>Nowotny, Martin</t>
         </is>
       </c>
     </row>
@@ -2658,7 +2657,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="G27" t="n">
         <v>1420</v>
@@ -2669,7 +2668,7 @@
         </is>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2712,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>La Barba, Pablo</t>
+          <t>Aguirre, German</t>
         </is>
       </c>
     </row>
@@ -2740,7 +2739,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="G28" t="n">
         <v>1420</v>
@@ -2751,7 +2750,7 @@
         </is>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2795,7 +2794,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>Aguirre, German</t>
+          <t>La Barba, Pablo</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3477,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G37" t="n">
         <v>1386</v>
@@ -3533,7 +3532,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>Fernandez, Carlos</t>
+          <t>Rodriguez, Pablo</t>
         </is>
       </c>
     </row>
@@ -3560,7 +3559,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G38" t="n">
         <v>1386</v>
@@ -3615,7 +3614,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>Rodriguez, Pablo</t>
+          <t>Fernandez, Carlos</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5535,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="G62" t="n">
         <v>1182</v>
@@ -5591,7 +5590,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>Sueldo, Pablo</t>
+          <t>Sartor, Yemel</t>
         </is>
       </c>
     </row>
@@ -5618,7 +5617,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="G63" t="n">
         <v>1182</v>
@@ -5673,7 +5672,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>Sartor, Yemel</t>
+          <t>Sueldo, Pablo</t>
         </is>
       </c>
     </row>
@@ -7020,7 +7019,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1093</v>
@@ -7075,7 +7074,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>Chiara, Lucio</t>
+          <t>Campos, Dario</t>
         </is>
       </c>
     </row>
@@ -7102,7 +7101,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1093</v>
@@ -7157,7 +7156,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>Campos, Dario</t>
+          <t>Chiara, Lucio</t>
         </is>
       </c>
     </row>
@@ -8004,7 +8003,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="G92" t="n">
         <v>1026</v>
@@ -8059,7 +8058,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>Escobar, Esteban</t>
+          <t>Rulfi, Daniel</t>
         </is>
       </c>
     </row>
@@ -8086,7 +8085,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="G93" t="n">
         <v>1026</v>
@@ -8141,7 +8140,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>Rulfi, Daniel</t>
+          <t>Escobar, Esteban</t>
         </is>
       </c>
     </row>
@@ -8742,7 +8741,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="G101" t="n">
         <v>1000</v>
@@ -8797,7 +8796,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>Badano, Pablo</t>
+          <t>Arrieta, Maximiliano</t>
         </is>
       </c>
     </row>
@@ -8824,7 +8823,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="G102" t="n">
         <v>1000</v>
@@ -8879,7 +8878,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>Asenie, Santiago</t>
+          <t>Mendieta, Elias</t>
         </is>
       </c>
     </row>
@@ -8906,7 +8905,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G103" t="n">
         <v>1000</v>
@@ -8961,7 +8960,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>Hagge, Pilar</t>
+          <t>Badano, Pablo</t>
         </is>
       </c>
     </row>
@@ -8988,7 +8987,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G104" t="n">
         <v>1000</v>
@@ -9043,7 +9042,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>Presel, Raul</t>
+          <t>Hagge, Pilar</t>
         </is>
       </c>
     </row>
@@ -9070,7 +9069,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="G105" t="n">
         <v>1000</v>
@@ -9125,7 +9124,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>Arrieta, Maximiliano</t>
+          <t>Presel, Raul</t>
         </is>
       </c>
     </row>
@@ -9152,7 +9151,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="G106" t="n">
         <v>1000</v>
@@ -9207,7 +9206,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>Mendieta, Elias</t>
+          <t>Asenie, Santiago</t>
         </is>
       </c>
     </row>
@@ -9316,7 +9315,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="G108" t="n">
         <v>994</v>
@@ -9327,13 +9326,13 @@
         </is>
       </c>
       <c r="I108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -9345,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="O108" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="P108" t="n">
         <v>0</v>
@@ -9357,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="S108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T108" t="n">
         <v>0</v>
@@ -9366,12 +9365,16 @@
         <v>0</v>
       </c>
       <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr"/>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>250 (S2022T01)</t>
+        </is>
+      </c>
       <c r="X108" t="inlineStr"/>
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>Perot, Martin</t>
+          <t>Levin, Raul</t>
         </is>
       </c>
     </row>
@@ -9398,7 +9401,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="G109" t="n">
         <v>994</v>
@@ -9409,13 +9412,13 @@
         </is>
       </c>
       <c r="I109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>0</v>
@@ -9427,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="P109" t="n">
         <v>0</v>
@@ -9439,7 +9442,7 @@
         <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T109" t="n">
         <v>0</v>
@@ -9448,16 +9451,12 @@
         <v>0</v>
       </c>
       <c r="V109" t="inlineStr"/>
-      <c r="W109" t="inlineStr">
-        <is>
-          <t>250 (S2022T01)</t>
-        </is>
-      </c>
+      <c r="W109" t="inlineStr"/>
       <c r="X109" t="inlineStr"/>
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>Levin, Raul</t>
+          <t>Perot, Martin</t>
         </is>
       </c>
     </row>
@@ -10808,7 +10807,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>318</v>
+        <v>223</v>
       </c>
       <c r="G126" t="n">
         <v>951</v>
@@ -10819,13 +10818,13 @@
         </is>
       </c>
       <c r="I126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>0</v>
@@ -10837,7 +10836,7 @@
         <v>0</v>
       </c>
       <c r="O126" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="P126" t="n">
         <v>0</v>
@@ -10849,7 +10848,7 @@
         <v>0</v>
       </c>
       <c r="S126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T126" t="n">
         <v>0</v>
@@ -10858,16 +10857,12 @@
         <v>0</v>
       </c>
       <c r="V126" t="inlineStr"/>
-      <c r="W126" t="inlineStr">
-        <is>
-          <t>125 (S2022T01)</t>
-        </is>
-      </c>
+      <c r="W126" t="inlineStr"/>
       <c r="X126" t="inlineStr"/>
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>Bonelli, Marcos</t>
+          <t>Aguer, Jose</t>
         </is>
       </c>
     </row>
@@ -10894,7 +10889,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>223</v>
+        <v>318</v>
       </c>
       <c r="G127" t="n">
         <v>951</v>
@@ -10905,13 +10900,13 @@
         </is>
       </c>
       <c r="I127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
@@ -10923,7 +10918,7 @@
         <v>0</v>
       </c>
       <c r="O127" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="P127" t="n">
         <v>0</v>
@@ -10935,7 +10930,7 @@
         <v>0</v>
       </c>
       <c r="S127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T127" t="n">
         <v>0</v>
@@ -10944,12 +10939,16 @@
         <v>0</v>
       </c>
       <c r="V127" t="inlineStr"/>
-      <c r="W127" t="inlineStr"/>
+      <c r="W127" t="inlineStr">
+        <is>
+          <t>125 (S2022T01)</t>
+        </is>
+      </c>
       <c r="X127" t="inlineStr"/>
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>Aguer, Jose</t>
+          <t>Bonelli, Marcos</t>
         </is>
       </c>
     </row>
@@ -11968,7 +11967,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="G140" t="n">
         <v>866</v>
@@ -12023,7 +12022,7 @@
       <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>Miner, Alberto</t>
+          <t>Tenca, Javier</t>
         </is>
       </c>
     </row>
@@ -12050,7 +12049,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="G141" t="n">
         <v>866</v>
@@ -12105,7 +12104,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>Tenca, Javier</t>
+          <t>Miner, Alberto</t>
         </is>
       </c>
     </row>
@@ -13202,7 +13201,7 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="G155" t="n">
         <v>768</v>
@@ -13257,7 +13256,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>Brian, Martin</t>
+          <t>Cossi, Francisco</t>
         </is>
       </c>
     </row>
@@ -13284,7 +13283,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="G156" t="n">
         <v>768</v>
@@ -13339,7 +13338,7 @@
       <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>Cossi, Francisco</t>
+          <t>Brian, Martin</t>
         </is>
       </c>
     </row>
@@ -15990,7 +15989,7 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="G189" t="n">
         <v>693</v>
@@ -16045,7 +16044,7 @@
       <c r="Y189" t="inlineStr"/>
       <c r="Z189" t="inlineStr">
         <is>
-          <t>Michea, Ignacio</t>
+          <t>Jose</t>
         </is>
       </c>
     </row>
@@ -16072,7 +16071,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="G190" t="n">
         <v>693</v>
@@ -16127,7 +16126,7 @@
       <c r="Y190" t="inlineStr"/>
       <c r="Z190" t="inlineStr">
         <is>
-          <t>Jose</t>
+          <t>Michea, Ignacio</t>
         </is>
       </c>
     </row>
@@ -16404,7 +16403,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>256</v>
+        <v>204</v>
       </c>
       <c r="G194" t="n">
         <v>680</v>
@@ -16459,7 +16458,7 @@
       <c r="Y194" t="inlineStr"/>
       <c r="Z194" t="inlineStr">
         <is>
-          <t>Portillo, Lucas</t>
+          <t>Delgado, Pablo</t>
         </is>
       </c>
     </row>
@@ -16486,7 +16485,7 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="G195" t="n">
         <v>680</v>
@@ -16541,7 +16540,7 @@
       <c r="Y195" t="inlineStr"/>
       <c r="Z195" t="inlineStr">
         <is>
-          <t>Delgado, Pablo</t>
+          <t>Arrieta, Matias</t>
         </is>
       </c>
     </row>
@@ -16568,7 +16567,7 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G196" t="n">
         <v>680</v>
@@ -16623,7 +16622,7 @@
       <c r="Y196" t="inlineStr"/>
       <c r="Z196" t="inlineStr">
         <is>
-          <t>Arrieta, Matias</t>
+          <t>Muller, Tomas</t>
         </is>
       </c>
     </row>
@@ -16650,7 +16649,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="G197" t="n">
         <v>680</v>
@@ -16705,7 +16704,7 @@
       <c r="Y197" t="inlineStr"/>
       <c r="Z197" t="inlineStr">
         <is>
-          <t>Muller, Tomas</t>
+          <t>Portillo, Lucas</t>
         </is>
       </c>
     </row>
@@ -18544,7 +18543,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="G220" t="n">
         <v>588</v>
@@ -18555,7 +18554,7 @@
         </is>
       </c>
       <c r="I220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" t="n">
         <v>0</v>
@@ -18599,7 +18598,7 @@
       <c r="Y220" t="inlineStr"/>
       <c r="Z220" t="inlineStr">
         <is>
-          <t>Bracco, Fernando</t>
+          <t>Dallinger, Humberto</t>
         </is>
       </c>
     </row>
@@ -18626,7 +18625,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="G221" t="n">
         <v>588</v>
@@ -18637,7 +18636,7 @@
         </is>
       </c>
       <c r="I221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" t="n">
         <v>0</v>
@@ -18681,7 +18680,7 @@
       <c r="Y221" t="inlineStr"/>
       <c r="Z221" t="inlineStr">
         <is>
-          <t>Dallinger, Humberto</t>
+          <t>Bracco, Fernando</t>
         </is>
       </c>
     </row>
@@ -20290,7 +20289,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G241" t="n">
         <v>480</v>
@@ -20345,7 +20344,7 @@
       <c r="Y241" t="inlineStr"/>
       <c r="Z241" t="inlineStr">
         <is>
-          <t>Ferrero, Alejandro</t>
+          <t>Antunez, Pablo</t>
         </is>
       </c>
     </row>
@@ -20372,7 +20371,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G242" t="n">
         <v>480</v>
@@ -20427,7 +20426,7 @@
       <c r="Y242" t="inlineStr"/>
       <c r="Z242" t="inlineStr">
         <is>
-          <t>Antunez, Pablo</t>
+          <t>Ferrero, Alejandro</t>
         </is>
       </c>
     </row>
@@ -20536,7 +20535,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="G244" t="n">
         <v>470</v>
@@ -20547,7 +20546,7 @@
         </is>
       </c>
       <c r="I244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J244" t="n">
         <v>0</v>
@@ -20591,7 +20590,7 @@
       <c r="Y244" t="inlineStr"/>
       <c r="Z244" t="inlineStr">
         <is>
-          <t>Velazquez, Pedro</t>
+          <t>Lell, Claudia</t>
         </is>
       </c>
     </row>
@@ -20618,7 +20617,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="G245" t="n">
         <v>470</v>
@@ -20629,7 +20628,7 @@
         </is>
       </c>
       <c r="I245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" t="n">
         <v>0</v>
@@ -20673,7 +20672,7 @@
       <c r="Y245" t="inlineStr"/>
       <c r="Z245" t="inlineStr">
         <is>
-          <t>Lell, Claudia</t>
+          <t>Velazquez, Pedro</t>
         </is>
       </c>
     </row>
@@ -21192,7 +21191,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G252" t="n">
         <v>416</v>
@@ -21247,7 +21246,7 @@
       <c r="Y252" t="inlineStr"/>
       <c r="Z252" t="inlineStr">
         <is>
-          <t>Bertoli, Maximiliano</t>
+          <t>Bertoli, Julian</t>
         </is>
       </c>
     </row>
@@ -21274,7 +21273,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G253" t="n">
         <v>416</v>
@@ -21329,7 +21328,7 @@
       <c r="Y253" t="inlineStr"/>
       <c r="Z253" t="inlineStr">
         <is>
-          <t>Bertoli, Julian</t>
+          <t>Bertoli, Maximiliano</t>
         </is>
       </c>
     </row>
